--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78B2CCD4-1750-4105-9BA0-7316FF63701E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0604A457-7781-44A9-9700-E180EDD26D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="4" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
@@ -7940,9 +7940,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.66774792714998199"/>
-          <c:y val="0.52211212212543523"/>
+          <c:y val="0.4986293061844862"/>
           <c:w val="0.26932868744830785"/>
-          <c:h val="0.22810232325951599"/>
+          <c:h val="0.25158527498007655"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -22685,9 +22685,7 @@
   </sheetPr>
   <dimension ref="A1:AM11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="47" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
@@ -24425,7 +24423,7 @@
   </sheetPr>
   <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -26908,7 +26906,7 @@
   <dimension ref="A1:AM11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="47" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:L77"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -33839,12 +33837,6 @@
     <row r="112" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V4:AD4"/>
-    <mergeCell ref="AE4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:BE4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B57:L57"/>
@@ -33852,6 +33844,12 @@
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="A41:L41"/>
     <mergeCell ref="B17:L17"/>
+    <mergeCell ref="V4:AD4"/>
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:BE4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="J14:K15 BC14:BD15 AT14:AU15 AK14:AL15 AB14:AC15 S14:T15 S6:T8 AB6:AC8 AK6:AL8 AT6:AU8 BC6:BD8 J6:K8 J10:K12 BC10:BD12 AT10:AU12 AK10:AL12 AB10:AC12 S10:T12">
     <cfRule type="cellIs" dxfId="200" priority="132" stopIfTrue="1" operator="lessThan">
@@ -34242,7 +34240,7 @@
   <dimension ref="G5:AB33"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -36636,7 +36634,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF52D2DB-4440-46CD-A082-746796DDD433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB49050-ACD9-4988-9364-6061221AF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="835" activeTab="7" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="835" activeTab="5" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -566,7 +566,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="&quot;p=&quot;##,##0.000"/>
+    <numFmt numFmtId="167" formatCode="&quot;p=&quot;##,##0.000"/>
   </numFmts>
   <fonts count="26" x14ac:knownFonts="1">
     <font>
@@ -2164,6 +2164,31 @@
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,42 +2237,17 @@
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="175" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="361">
+  <dxfs count="295">
     <dxf>
       <font>
         <color rgb="FFD95F02"/>
@@ -2384,1634 +2384,6 @@
       <font>
         <color rgb="FF1B9E77"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFD95F02"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFD95F02"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF1B9E77"/>
-      </font>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
     <dxf>
       <font>
@@ -6202,6 +4574,1150 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFD95F02"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FFD95F02"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <color rgb="FF1B9E77"/>
+      </font>
+      <numFmt numFmtId="15" formatCode="0.00E+00"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8451,7 +7967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{852AB192-DB7E-41F4-AF90-3923623DA99A}" type="CELLRANGE">
+                    <a:fld id="{0AD738D4-9EF1-4ED8-8DBE-A2B3835BB958}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9111,7 +8627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{ADE01D99-2A46-4055-A88B-4BB158838C88}" type="CELLRANGE">
+                    <a:fld id="{43C55299-F3A3-46F2-BD0A-CAB98C647DCE}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9145,7 +8661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AE5B8C9-DC04-4558-92F2-FF478C49C089}" type="CELLRANGE">
+                    <a:fld id="{A52740A7-2D7B-4B0C-A9DB-074DF7F1C6E3}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9179,7 +8695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C88EBB82-0FC1-4628-8602-9541AF65B476}" type="CELLRANGE">
+                    <a:fld id="{4AA38390-644E-4AE7-8D20-E980E40AE695}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10478,7 +9994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FB758987-9169-47E1-B944-728CBD365348}" type="CELLRANGE">
+                    <a:fld id="{DF9E6BB2-49F9-4BCA-9DDF-94C9A327447A}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10512,7 +10028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{750FA99D-53D1-4387-B92B-230EC4BDC369}" type="CELLRANGE">
+                    <a:fld id="{DDF704CA-20F8-4EA6-B6D7-8D4ABBF70503}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10546,7 +10062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{D690DC2A-3308-413D-8BE4-4DAA17F01187}" type="CELLRANGE">
+                    <a:fld id="{8039A577-93D8-4472-9BB3-2B3C4BBF5547}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11255,7 +10771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{9608E76C-CD41-4232-B719-119CCFF8B0EF}" type="CELLRANGE">
+                    <a:fld id="{366917D8-5F57-42B4-839B-E1AFC63A76FF}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -31042,17 +30558,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="J2:Q10" totalsRowShown="0" headerRowDxfId="360" dataDxfId="358" headerRowBorderDxfId="359" tableBorderDxfId="357" totalsRowBorderDxfId="356">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}" name="Table1" displayName="Table1" ref="J2:Q10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="111" headerRowBorderDxfId="112" tableBorderDxfId="110" totalsRowBorderDxfId="109">
   <autoFilter ref="J2:Q10" xr:uid="{D3980010-2201-43EF-9941-5D34E4A5CF0F}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="355"/>
-    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="354"/>
-    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="353"/>
-    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="352"/>
-    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="351"/>
-    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p. val." dataDxfId="350"/>
-    <tableColumn id="4" xr3:uid="{0603EEF6-D289-414E-9A6C-56120260E64A}" name="p. val. adj." dataDxfId="349"/>
-    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="348">
+    <tableColumn id="1" xr3:uid="{48EA7560-AFDA-4976-872C-A62413C27C30}" name="Predictors" dataDxfId="108"/>
+    <tableColumn id="2" xr3:uid="{B74BAF5A-A8B1-41AC-AA5C-9C7F4D3C00F5}" name="Estimates" dataDxfId="107"/>
+    <tableColumn id="3" xr3:uid="{692BDF21-5E37-4774-A232-65FEAC4EF62A}" name="std.error" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{25F0D2CD-4553-4F0F-A005-7B069A4DF146}" name="2.5% CI" dataDxfId="105"/>
+    <tableColumn id="5" xr3:uid="{5C65DEBD-594B-4030-A893-0F5416AC8463}" name="97.5% CI" dataDxfId="104"/>
+    <tableColumn id="7" xr3:uid="{1C749EC2-7DA5-4835-AAB4-29FE5E444F42}" name="p. val." dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{0603EEF6-D289-414E-9A6C-56120260E64A}" name="p. val. adj." dataDxfId="102"/>
+    <tableColumn id="8" xr3:uid="{C1996589-8716-4257-9BC3-42E65902C402}" name="|CI-delta|" dataDxfId="101">
       <calculatedColumnFormula>Table1[[#This Row],[Estimates]]-Table1[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31061,17 +30577,17 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="J13:Q21" totalsRowShown="0" headerRowDxfId="347" dataDxfId="345" headerRowBorderDxfId="346" tableBorderDxfId="344" totalsRowBorderDxfId="343">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}" name="Table3" displayName="Table3" ref="J13:Q21" totalsRowShown="0" headerRowDxfId="100" dataDxfId="98" headerRowBorderDxfId="99" tableBorderDxfId="97" totalsRowBorderDxfId="96">
   <autoFilter ref="J13:Q21" xr:uid="{DE40A492-BBA9-4876-8724-BC64B3994271}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="342"/>
-    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="341"/>
-    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="340"/>
-    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="339"/>
-    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="338"/>
-    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p. val." dataDxfId="337"/>
-    <tableColumn id="4" xr3:uid="{2C1E6FA3-F11F-4631-B0BB-23F7331F52BE}" name="p. val. adj." dataDxfId="336"/>
-    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="335">
+    <tableColumn id="1" xr3:uid="{E34199D2-D5CB-45DC-96B2-AAECCF32344B}" name="Predictors" dataDxfId="95"/>
+    <tableColumn id="2" xr3:uid="{BF536D58-8825-421A-A286-3483AB4A0DBA}" name="Estimates" dataDxfId="94"/>
+    <tableColumn id="3" xr3:uid="{2B81C313-1E48-4C7B-A992-DEE392DF89F2}" name="std.error" dataDxfId="93"/>
+    <tableColumn id="6" xr3:uid="{51E253F3-5545-4607-87E2-3713F0C79ED0}" name="2.5% CI" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{39D9684C-88E4-42B1-822E-8BF560658BA3}" name="97.5% CI" dataDxfId="91"/>
+    <tableColumn id="7" xr3:uid="{5CF7E86F-7A72-45EB-8BFA-3C614A5C05E4}" name="p. val." dataDxfId="90"/>
+    <tableColumn id="4" xr3:uid="{2C1E6FA3-F11F-4631-B0BB-23F7331F52BE}" name="p. val. adj." dataDxfId="89"/>
+    <tableColumn id="8" xr3:uid="{91174BE1-7871-4821-9200-FC6E6061BBAE}" name="|CI-delta|" dataDxfId="88">
       <calculatedColumnFormula>Table3[[#This Row],[Estimates]]-Table3[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31080,17 +30596,17 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="S2:Z10" totalsRowShown="0" headerRowDxfId="334" dataDxfId="332" headerRowBorderDxfId="333" tableBorderDxfId="331" totalsRowBorderDxfId="330">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}" name="Table4" displayName="Table4" ref="S2:Z10" totalsRowShown="0" headerRowDxfId="87" dataDxfId="85" headerRowBorderDxfId="86" tableBorderDxfId="84" totalsRowBorderDxfId="83">
   <autoFilter ref="S2:Z10" xr:uid="{6BDDC793-1E7A-4B5C-BD08-84F047AC5B6B}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="329"/>
-    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="328"/>
-    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="327"/>
-    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="326"/>
-    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="325"/>
-    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="324"/>
-    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="323"/>
-    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="322">
+    <tableColumn id="1" xr3:uid="{82A813F0-7850-4939-B6AE-4F49D1DC217D}" name="Predictors" dataDxfId="82"/>
+    <tableColumn id="2" xr3:uid="{352EAC9D-A02A-4CE8-AF89-3ED3FCB5A979}" name="Estimates" dataDxfId="81"/>
+    <tableColumn id="3" xr3:uid="{75C28E4F-C80D-4ABC-8F6A-8DBD2F364D4A}" name="std.error" dataDxfId="80"/>
+    <tableColumn id="6" xr3:uid="{5E6CA2DC-274F-42F5-A8A5-390EFB24C110}" name="2.5% CI" dataDxfId="79"/>
+    <tableColumn id="5" xr3:uid="{EAC0DAFE-B91D-4C42-BDC9-4EF8ECE68B5F}" name="97.5% CI" dataDxfId="78"/>
+    <tableColumn id="7" xr3:uid="{CE2FF777-20E0-4791-8E86-42CF06A807DA}" name="p. val." dataDxfId="77"/>
+    <tableColumn id="4" xr3:uid="{2A298E49-C813-4E10-81DD-DFDD19936088}" name="p. val. adj." dataDxfId="76"/>
+    <tableColumn id="8" xr3:uid="{43307C70-1753-4EDD-A9F4-88C5315A288A}" name="|CI-delta|" dataDxfId="75">
       <calculatedColumnFormula>Table4[[#This Row],[Estimates]]-Table4[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31099,17 +30615,17 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:H10" totalsRowShown="0" headerRowDxfId="321" dataDxfId="319" headerRowBorderDxfId="320" tableBorderDxfId="318" totalsRowBorderDxfId="317">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}" name="Table5" displayName="Table5" ref="A2:H10" totalsRowShown="0" headerRowDxfId="74" dataDxfId="72" headerRowBorderDxfId="73" tableBorderDxfId="71" totalsRowBorderDxfId="70">
   <autoFilter ref="A2:H10" xr:uid="{31E79EDA-219D-4CFA-8AA6-6A991A81B772}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="316"/>
-    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="315"/>
-    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="314"/>
-    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="313"/>
-    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="312"/>
-    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="311"/>
-    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="310"/>
-    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="309">
+    <tableColumn id="1" xr3:uid="{25702B6E-B402-46EF-BB07-89FAEF761F4F}" name="Predictors" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{55B41C0A-72EC-4198-AA0E-BDC398F9A9B6}" name="Estimates" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{855FA9D6-FEA4-4049-9614-3F82ACEBC173}" name="std.error" dataDxfId="67"/>
+    <tableColumn id="6" xr3:uid="{6F9FB966-53EF-492A-8818-43E47D6A804A}" name="2.5% CI" dataDxfId="66"/>
+    <tableColumn id="5" xr3:uid="{79B4821D-DF78-4C65-827E-002BD888F3B1}" name="97.5% CI" dataDxfId="65"/>
+    <tableColumn id="7" xr3:uid="{DF172C73-86B3-4FBF-A011-9108431BAED4}" name="p. val." dataDxfId="64"/>
+    <tableColumn id="4" xr3:uid="{F9DC3D7D-5D08-472E-90A6-84DEB2535DEF}" name="p. val. adj." dataDxfId="63"/>
+    <tableColumn id="8" xr3:uid="{E2CC2F45-52B6-411C-8857-874E710E7E9B}" name="|CI-delta|" dataDxfId="62">
       <calculatedColumnFormula>Table5[[#This Row],[Estimates]]-Table5[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31118,17 +30634,17 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A13:H21" totalsRowShown="0" headerRowDxfId="308" dataDxfId="306" headerRowBorderDxfId="307" tableBorderDxfId="305" totalsRowBorderDxfId="304">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}" name="Table6" displayName="Table6" ref="A13:H21" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58" totalsRowBorderDxfId="57">
   <autoFilter ref="A13:H21" xr:uid="{873E651E-364D-4C9A-AC67-F669F1DC98F7}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="303"/>
-    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="302"/>
-    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="301"/>
-    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="300"/>
-    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="299"/>
-    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="298"/>
-    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="297"/>
-    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="296">
+    <tableColumn id="1" xr3:uid="{13F39383-83C5-45EF-A3DC-AB048CB47D6B}" name="Predictors" dataDxfId="56"/>
+    <tableColumn id="2" xr3:uid="{FC01EC59-6FE5-4984-BD8C-56885D9A31B8}" name="Estimates" dataDxfId="55"/>
+    <tableColumn id="3" xr3:uid="{497C06E4-D3C0-44F8-972B-B4ED07164CFB}" name="std.error" dataDxfId="54"/>
+    <tableColumn id="6" xr3:uid="{123C5CEC-9EE4-42F1-8816-CAF425B9D6D8}" name="2.5% CI" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{92067161-C954-46A0-8425-5016FA39924E}" name="97.5% CI" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{D21CE710-DBC3-426C-B448-4B137AF6E93C}" name="p. val." dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{BAA21037-258C-486A-8624-D86C33B3EAD6}" name="p. val. adj." dataDxfId="50"/>
+    <tableColumn id="8" xr3:uid="{017AD943-F50D-4872-8482-F88D6E168424}" name="|CI-delta|" dataDxfId="49">
       <calculatedColumnFormula>Table6[[#This Row],[Estimates]]-Table6[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31137,17 +30653,17 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="S13:Z21" totalsRowShown="0" headerRowDxfId="295" dataDxfId="293" headerRowBorderDxfId="294" tableBorderDxfId="292" totalsRowBorderDxfId="291">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}" name="Table7" displayName="Table7" ref="S13:Z21" totalsRowShown="0" headerRowDxfId="48" dataDxfId="46" headerRowBorderDxfId="47" tableBorderDxfId="45" totalsRowBorderDxfId="44">
   <autoFilter ref="S13:Z21" xr:uid="{16906F7D-6662-46E4-84F3-9AAF62C61242}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="290"/>
-    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="289"/>
-    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="288"/>
-    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="287"/>
-    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="286"/>
-    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="285"/>
-    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="284"/>
-    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="283">
+    <tableColumn id="1" xr3:uid="{89F96BA7-E1A0-43BA-9990-4183F8DC6997}" name="Predictors" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{7CE57966-36A6-4A00-A33D-285D0817534A}" name="Estimates" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{712F2884-D80C-48C5-9B09-F04127F4ADDE}" name="std.error" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{FF4061DC-ECCB-4575-BFAB-736ED74106BB}" name="2.5% CI" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{86574847-CC7E-41F3-9B86-76D99ED48F82}" name="97.5% CI" dataDxfId="39"/>
+    <tableColumn id="7" xr3:uid="{04158CC7-A1BD-4789-8783-0A5E5594F3DE}" name="p. val." dataDxfId="38"/>
+    <tableColumn id="4" xr3:uid="{FBA3233F-C3C7-4DA7-A8C9-62499D701BA6}" name="p. val. adj." dataDxfId="37"/>
+    <tableColumn id="8" xr3:uid="{BDAF6820-92C5-4CC2-BE97-6CFF45D70993}" name="|CI-delta|" dataDxfId="36">
       <calculatedColumnFormula>Table7[[#This Row],[Estimates]]-Table7[[#This Row],[2.5% CI]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -31494,54 +31010,54 @@
       <c r="A1" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="206" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="198" t="s">
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="209" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="200" t="s">
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="211" t="s">
         <v>22</v>
       </c>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="202" t="s">
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="213" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="203"/>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="203"/>
-      <c r="AK1" s="203"/>
-      <c r="AL1" s="193" t="s">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="194"/>
+      <c r="AM1" s="205"/>
     </row>
     <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
@@ -33108,78 +32624,78 @@
     <mergeCell ref="AC1:AK1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I5 H8:I9 H11:I11 Q3:R5 Q8:R8 Q11:R11 Z3:AA5 Z8:AA9 Z11:AA11 AI3:AJ5 AI8:AJ9 AI11:AJ11">
-    <cfRule type="cellIs" dxfId="282" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="294" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="281" priority="20" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="293" priority="20" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="280" priority="21" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="292" priority="21" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="279" priority="22" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="291" priority="22" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J5 J8:J9 J11 S3:S5 S8:S9 S11 AB3:AB5 AB8:AB9 AB11 AK3:AK5 AK8:AK9 AK11">
-    <cfRule type="containsText" dxfId="278" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="290" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="277" priority="15" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="289" priority="15" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="276" priority="16" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="288" priority="16" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="275" priority="17" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="287" priority="17" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="274" priority="18" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="286" priority="18" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R9">
-    <cfRule type="cellIs" dxfId="273" priority="11" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="285" priority="11" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="272" priority="12" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="284" priority="12" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="271" priority="13" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="283" priority="13" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="270" priority="14" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="282" priority="14" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6 Q6:R6 Z6:AA6 AI6:AJ6">
-    <cfRule type="cellIs" dxfId="269" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="281" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="268" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="280" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="267" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="279" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="266" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="278" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 S6 AB6 AK6">
-    <cfRule type="containsText" dxfId="265" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="277" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="264" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="276" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="263" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="275" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="262" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="274" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="261" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="273" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -33195,8 +32711,8 @@
   </sheetPr>
   <dimension ref="A1:BE11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J2"/>
+    <sheetView showGridLines="0" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="55" workbookViewId="0">
+      <selection activeCell="BD15" sqref="BD15:BF15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -33246,76 +32762,76 @@
       <c r="A1" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="207" t="s">
+      <c r="B1" s="218" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="205"/>
-      <c r="D1" s="205"/>
-      <c r="E1" s="205"/>
-      <c r="F1" s="205"/>
-      <c r="G1" s="205"/>
-      <c r="H1" s="205"/>
-      <c r="I1" s="205"/>
-      <c r="J1" s="205"/>
-      <c r="K1" s="204" t="s">
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="216"/>
+      <c r="H1" s="216"/>
+      <c r="I1" s="216"/>
+      <c r="J1" s="216"/>
+      <c r="K1" s="215" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="205"/>
-      <c r="M1" s="205"/>
-      <c r="N1" s="205"/>
-      <c r="O1" s="205"/>
-      <c r="P1" s="205"/>
-      <c r="Q1" s="205"/>
-      <c r="R1" s="205"/>
-      <c r="S1" s="206"/>
-      <c r="T1" s="204" t="s">
+      <c r="L1" s="216"/>
+      <c r="M1" s="216"/>
+      <c r="N1" s="216"/>
+      <c r="O1" s="216"/>
+      <c r="P1" s="216"/>
+      <c r="Q1" s="216"/>
+      <c r="R1" s="216"/>
+      <c r="S1" s="217"/>
+      <c r="T1" s="215" t="s">
         <v>30</v>
       </c>
-      <c r="U1" s="205"/>
-      <c r="V1" s="205"/>
-      <c r="W1" s="205"/>
-      <c r="X1" s="205"/>
-      <c r="Y1" s="205"/>
-      <c r="Z1" s="205"/>
-      <c r="AA1" s="205"/>
-      <c r="AB1" s="206"/>
-      <c r="AC1" s="205" t="s">
+      <c r="U1" s="216"/>
+      <c r="V1" s="216"/>
+      <c r="W1" s="216"/>
+      <c r="X1" s="216"/>
+      <c r="Y1" s="216"/>
+      <c r="Z1" s="216"/>
+      <c r="AA1" s="216"/>
+      <c r="AB1" s="217"/>
+      <c r="AC1" s="216" t="s">
         <v>31</v>
       </c>
-      <c r="AD1" s="205"/>
-      <c r="AE1" s="205"/>
-      <c r="AF1" s="205"/>
-      <c r="AG1" s="205"/>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="205"/>
-      <c r="AJ1" s="205"/>
-      <c r="AK1" s="206"/>
-      <c r="AL1" s="204" t="s">
+      <c r="AD1" s="216"/>
+      <c r="AE1" s="216"/>
+      <c r="AF1" s="216"/>
+      <c r="AG1" s="216"/>
+      <c r="AH1" s="216"/>
+      <c r="AI1" s="216"/>
+      <c r="AJ1" s="216"/>
+      <c r="AK1" s="217"/>
+      <c r="AL1" s="215" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="205"/>
-      <c r="AN1" s="205"/>
-      <c r="AO1" s="205"/>
-      <c r="AP1" s="205"/>
-      <c r="AQ1" s="205"/>
-      <c r="AR1" s="205"/>
-      <c r="AS1" s="205"/>
-      <c r="AT1" s="206"/>
-      <c r="AU1" s="204" t="s">
+      <c r="AM1" s="216"/>
+      <c r="AN1" s="216"/>
+      <c r="AO1" s="216"/>
+      <c r="AP1" s="216"/>
+      <c r="AQ1" s="216"/>
+      <c r="AR1" s="216"/>
+      <c r="AS1" s="216"/>
+      <c r="AT1" s="217"/>
+      <c r="AU1" s="215" t="s">
         <v>33</v>
       </c>
-      <c r="AV1" s="205"/>
-      <c r="AW1" s="205"/>
-      <c r="AX1" s="205"/>
-      <c r="AY1" s="205"/>
-      <c r="AZ1" s="205"/>
-      <c r="BA1" s="205"/>
-      <c r="BB1" s="205"/>
-      <c r="BC1" s="206"/>
-      <c r="BD1" s="193" t="s">
+      <c r="AV1" s="216"/>
+      <c r="AW1" s="216"/>
+      <c r="AX1" s="216"/>
+      <c r="AY1" s="216"/>
+      <c r="AZ1" s="216"/>
+      <c r="BA1" s="216"/>
+      <c r="BB1" s="216"/>
+      <c r="BC1" s="217"/>
+      <c r="BD1" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="BE1" s="194"/>
+      <c r="BE1" s="205"/>
     </row>
     <row r="2" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="105" t="s">
@@ -35604,64 +35120,64 @@
     <mergeCell ref="AL1:AT1"/>
   </mergeCells>
   <conditionalFormatting sqref="H11:I11 H8:I9 H3:I5 BA11:BB11 BA8:BB9 BA3:BB5 AR11:AS11 AR8:AS9 AR3:AS5 AI11:AJ11 AI8:AJ9 AI3:AJ5 Z11:AA11 Z8:AA9 Z3:AA5 Q11:R11 Q8:R9 Q3:R5">
-    <cfRule type="cellIs" dxfId="260" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="272" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="259" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="271" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="258" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="270" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="257" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="269" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC11 BC8:BC9 BC3:BC5 AT3:AT5 AT8:AT9 AT11 AK11 AK8:AK9 AK3:AK5 AB11 AB8:AB9 AB3:AB5 S11 S8:S9 S3:S5 J11 J8:J9 J3:J5">
-    <cfRule type="containsText" dxfId="256" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="268" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="255" priority="11" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="267" priority="11" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="254" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="266" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="253" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="265" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="252" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="264" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6 BA6:BB6 AR6:AS6 AI6:AJ6 Z6:AA6 Q6:R6">
-    <cfRule type="cellIs" dxfId="251" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="263" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="250" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="262" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="249" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="261" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="248" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="260" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BC6 AT6 AK6 AB6 S6 J6">
-    <cfRule type="containsText" dxfId="247" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="259" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="246" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="258" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="245" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="257" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="244" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="256" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="243" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="255" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -35716,54 +35232,54 @@
       <c r="A1" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="195" t="s">
+      <c r="B1" s="206" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="196"/>
-      <c r="D1" s="196"/>
-      <c r="E1" s="196"/>
-      <c r="F1" s="196"/>
-      <c r="G1" s="196"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="196"/>
-      <c r="J1" s="197"/>
-      <c r="K1" s="198" t="s">
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="208"/>
+      <c r="K1" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="L1" s="196"/>
-      <c r="M1" s="196"/>
-      <c r="N1" s="196"/>
-      <c r="O1" s="196"/>
-      <c r="P1" s="196"/>
-      <c r="Q1" s="196"/>
-      <c r="R1" s="196"/>
-      <c r="S1" s="199"/>
-      <c r="T1" s="200" t="s">
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="207"/>
+      <c r="O1" s="207"/>
+      <c r="P1" s="207"/>
+      <c r="Q1" s="207"/>
+      <c r="R1" s="207"/>
+      <c r="S1" s="210"/>
+      <c r="T1" s="211" t="s">
         <v>47</v>
       </c>
-      <c r="U1" s="201"/>
-      <c r="V1" s="201"/>
-      <c r="W1" s="201"/>
-      <c r="X1" s="201"/>
-      <c r="Y1" s="201"/>
-      <c r="Z1" s="201"/>
-      <c r="AA1" s="201"/>
-      <c r="AB1" s="201"/>
-      <c r="AC1" s="202" t="s">
+      <c r="U1" s="212"/>
+      <c r="V1" s="212"/>
+      <c r="W1" s="212"/>
+      <c r="X1" s="212"/>
+      <c r="Y1" s="212"/>
+      <c r="Z1" s="212"/>
+      <c r="AA1" s="212"/>
+      <c r="AB1" s="212"/>
+      <c r="AC1" s="213" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="203"/>
-      <c r="AE1" s="203"/>
-      <c r="AF1" s="203"/>
-      <c r="AG1" s="203"/>
-      <c r="AH1" s="203"/>
-      <c r="AI1" s="203"/>
-      <c r="AJ1" s="203"/>
-      <c r="AK1" s="203"/>
-      <c r="AL1" s="193" t="s">
+      <c r="AD1" s="214"/>
+      <c r="AE1" s="214"/>
+      <c r="AF1" s="214"/>
+      <c r="AG1" s="214"/>
+      <c r="AH1" s="214"/>
+      <c r="AI1" s="214"/>
+      <c r="AJ1" s="214"/>
+      <c r="AK1" s="214"/>
+      <c r="AL1" s="204" t="s">
         <v>41</v>
       </c>
-      <c r="AM1" s="194"/>
+      <c r="AM1" s="205"/>
     </row>
     <row r="2" spans="1:39" s="4" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="30" t="s">
@@ -37336,64 +36852,64 @@
     <mergeCell ref="B1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="H3:I5 H11:I11 Q3:R5 Q11:R11 Z3:AA5 Z11:AA11 AI3:AJ5 AI11:AJ11 H1:I1 Q1:R1 Z1:AA1 AI1:AJ1 AI7:AJ9 Z7:AA9 Q7:R8 H7:I9">
-    <cfRule type="cellIs" dxfId="242" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="254" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="241" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="253" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="240" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="252" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="239" priority="19" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="251" priority="19" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J3:J5 J11 S3:S5 S11 AB3:AB5 AB11 AK3:AK5 AK11 J1 S1 AB1 AK1 AK7:AK9 AB7:AB9 S7:S9 J7:J9">
-    <cfRule type="containsText" dxfId="238" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="250" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="237" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="249" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="236" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="248" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="235" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="247" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="234" priority="15" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="246" priority="15" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6:I6 Q6:R6 Z6:AA6 AI6:AJ6">
-    <cfRule type="cellIs" dxfId="233" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="245" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="232" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="244" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="231" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="243" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="230" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="242" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6 S6 AB6 AK6">
-    <cfRule type="containsText" dxfId="229" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="241" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="228" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="240" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="227" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="239" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="226" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="238" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",J6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="225" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="237" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",J6)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -37454,20 +36970,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:57" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="208"/>
-      <c r="L1" s="208"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="219"/>
+      <c r="L1" s="219"/>
     </row>
     <row r="2" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="188"/>
@@ -37503,74 +37019,74 @@
       <c r="A4" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="205" t="s">
+      <c r="B4" s="216" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="205"/>
-      <c r="H4" s="205"/>
-      <c r="I4" s="205"/>
-      <c r="J4" s="205"/>
-      <c r="K4" s="205"/>
-      <c r="L4" s="205"/>
-      <c r="M4" s="205" t="s">
+      <c r="C4" s="216"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="216"/>
+      <c r="F4" s="216"/>
+      <c r="G4" s="216"/>
+      <c r="H4" s="216"/>
+      <c r="I4" s="216"/>
+      <c r="J4" s="216"/>
+      <c r="K4" s="216"/>
+      <c r="L4" s="216"/>
+      <c r="M4" s="216" t="s">
         <v>52</v>
       </c>
-      <c r="N4" s="205"/>
-      <c r="O4" s="205"/>
-      <c r="P4" s="205"/>
-      <c r="Q4" s="205"/>
-      <c r="R4" s="205"/>
-      <c r="S4" s="205"/>
-      <c r="T4" s="205"/>
-      <c r="U4" s="205"/>
-      <c r="V4" s="207" t="s">
+      <c r="N4" s="216"/>
+      <c r="O4" s="216"/>
+      <c r="P4" s="216"/>
+      <c r="Q4" s="216"/>
+      <c r="R4" s="216"/>
+      <c r="S4" s="216"/>
+      <c r="T4" s="216"/>
+      <c r="U4" s="216"/>
+      <c r="V4" s="218" t="s">
         <v>53</v>
       </c>
-      <c r="W4" s="205"/>
-      <c r="X4" s="205"/>
-      <c r="Y4" s="205"/>
-      <c r="Z4" s="205"/>
-      <c r="AA4" s="205"/>
-      <c r="AB4" s="205"/>
-      <c r="AC4" s="205"/>
-      <c r="AD4" s="205"/>
-      <c r="AE4" s="207" t="s">
+      <c r="W4" s="216"/>
+      <c r="X4" s="216"/>
+      <c r="Y4" s="216"/>
+      <c r="Z4" s="216"/>
+      <c r="AA4" s="216"/>
+      <c r="AB4" s="216"/>
+      <c r="AC4" s="216"/>
+      <c r="AD4" s="216"/>
+      <c r="AE4" s="218" t="s">
         <v>54</v>
       </c>
-      <c r="AF4" s="205"/>
-      <c r="AG4" s="205"/>
-      <c r="AH4" s="205"/>
-      <c r="AI4" s="205"/>
-      <c r="AJ4" s="205"/>
-      <c r="AK4" s="205"/>
-      <c r="AL4" s="205"/>
-      <c r="AM4" s="205"/>
-      <c r="AN4" s="207" t="s">
+      <c r="AF4" s="216"/>
+      <c r="AG4" s="216"/>
+      <c r="AH4" s="216"/>
+      <c r="AI4" s="216"/>
+      <c r="AJ4" s="216"/>
+      <c r="AK4" s="216"/>
+      <c r="AL4" s="216"/>
+      <c r="AM4" s="216"/>
+      <c r="AN4" s="218" t="s">
         <v>55</v>
       </c>
-      <c r="AO4" s="205"/>
-      <c r="AP4" s="205"/>
-      <c r="AQ4" s="205"/>
-      <c r="AR4" s="205"/>
-      <c r="AS4" s="205"/>
-      <c r="AT4" s="205"/>
-      <c r="AU4" s="205"/>
-      <c r="AV4" s="205"/>
-      <c r="AW4" s="207" t="s">
+      <c r="AO4" s="216"/>
+      <c r="AP4" s="216"/>
+      <c r="AQ4" s="216"/>
+      <c r="AR4" s="216"/>
+      <c r="AS4" s="216"/>
+      <c r="AT4" s="216"/>
+      <c r="AU4" s="216"/>
+      <c r="AV4" s="216"/>
+      <c r="AW4" s="218" t="s">
         <v>56</v>
       </c>
-      <c r="AX4" s="205"/>
-      <c r="AY4" s="205"/>
-      <c r="AZ4" s="205"/>
-      <c r="BA4" s="205"/>
-      <c r="BB4" s="205"/>
-      <c r="BC4" s="205"/>
-      <c r="BD4" s="205"/>
-      <c r="BE4" s="205"/>
+      <c r="AX4" s="216"/>
+      <c r="AY4" s="216"/>
+      <c r="AZ4" s="216"/>
+      <c r="BA4" s="216"/>
+      <c r="BB4" s="216"/>
+      <c r="BC4" s="216"/>
+      <c r="BD4" s="216"/>
+      <c r="BE4" s="216"/>
     </row>
     <row r="5" spans="1:57" s="113" customFormat="1" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
@@ -39925,20 +39441,20 @@
       <c r="A17" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B17" s="205" t="str">
+      <c r="B17" s="216" t="str">
         <f>M4</f>
         <v>L*H vs. L*^[H]</v>
       </c>
-      <c r="C17" s="205"/>
-      <c r="D17" s="205"/>
-      <c r="E17" s="205"/>
-      <c r="F17" s="205"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="205"/>
-      <c r="J17" s="205"/>
-      <c r="K17" s="205"/>
-      <c r="L17" s="205"/>
+      <c r="C17" s="216"/>
+      <c r="D17" s="216"/>
+      <c r="E17" s="216"/>
+      <c r="F17" s="216"/>
+      <c r="G17" s="216"/>
+      <c r="H17" s="216"/>
+      <c r="I17" s="216"/>
+      <c r="J17" s="216"/>
+      <c r="K17" s="216"/>
+      <c r="L17" s="216"/>
     </row>
     <row r="18" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
@@ -40458,20 +39974,20 @@
       <c r="A30" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B30" s="205" t="str">
+      <c r="B30" s="216" t="str">
         <f>V4</f>
         <v>L*H vs. ^[L*H]</v>
       </c>
-      <c r="C30" s="205"/>
-      <c r="D30" s="205"/>
-      <c r="E30" s="205"/>
-      <c r="F30" s="205"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="205"/>
-      <c r="J30" s="205"/>
-      <c r="K30" s="205"/>
-      <c r="L30" s="205"/>
+      <c r="C30" s="216"/>
+      <c r="D30" s="216"/>
+      <c r="E30" s="216"/>
+      <c r="F30" s="216"/>
+      <c r="G30" s="216"/>
+      <c r="H30" s="216"/>
+      <c r="I30" s="216"/>
+      <c r="J30" s="216"/>
+      <c r="K30" s="216"/>
+      <c r="L30" s="216"/>
     </row>
     <row r="31" spans="1:46" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="105" t="s">
@@ -40956,20 +40472,20 @@
       </c>
     </row>
     <row r="41" spans="1:57" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="208" t="s">
+      <c r="A41" s="219" t="s">
         <v>63</v>
       </c>
-      <c r="B41" s="208"/>
-      <c r="C41" s="208"/>
-      <c r="D41" s="208"/>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="208"/>
-      <c r="H41" s="208"/>
-      <c r="I41" s="208"/>
-      <c r="J41" s="208"/>
-      <c r="K41" s="208"/>
-      <c r="L41" s="208"/>
+      <c r="B41" s="219"/>
+      <c r="C41" s="219"/>
+      <c r="D41" s="219"/>
+      <c r="E41" s="219"/>
+      <c r="F41" s="219"/>
+      <c r="G41" s="219"/>
+      <c r="H41" s="219"/>
+      <c r="I41" s="219"/>
+      <c r="J41" s="219"/>
+      <c r="K41" s="219"/>
+      <c r="L41" s="219"/>
     </row>
     <row r="42" spans="1:57" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="188"/>
@@ -41020,20 +40536,20 @@
       <c r="A44" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B44" s="205" t="str">
+      <c r="B44" s="216" t="str">
         <f>AE4</f>
         <v>^[L]*H vs. L*^[H]</v>
       </c>
-      <c r="C44" s="205"/>
-      <c r="D44" s="205"/>
-      <c r="E44" s="205"/>
-      <c r="F44" s="205"/>
-      <c r="G44" s="205"/>
-      <c r="H44" s="205"/>
-      <c r="I44" s="205"/>
-      <c r="J44" s="205"/>
-      <c r="K44" s="205"/>
-      <c r="L44" s="205"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="216"/>
+      <c r="E44" s="216"/>
+      <c r="F44" s="216"/>
+      <c r="G44" s="216"/>
+      <c r="H44" s="216"/>
+      <c r="I44" s="216"/>
+      <c r="J44" s="216"/>
+      <c r="K44" s="216"/>
+      <c r="L44" s="216"/>
     </row>
     <row r="45" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="105" t="s">
@@ -41565,20 +41081,20 @@
       <c r="A57" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="205" t="str">
+      <c r="B57" s="216" t="str">
         <f>AN4</f>
         <v>^[L]*H vs. ^[L*H]</v>
       </c>
-      <c r="C57" s="205"/>
-      <c r="D57" s="205"/>
-      <c r="E57" s="205"/>
-      <c r="F57" s="205"/>
-      <c r="G57" s="205"/>
-      <c r="H57" s="205"/>
-      <c r="I57" s="205"/>
-      <c r="J57" s="205"/>
-      <c r="K57" s="205"/>
-      <c r="L57" s="205"/>
+      <c r="C57" s="216"/>
+      <c r="D57" s="216"/>
+      <c r="E57" s="216"/>
+      <c r="F57" s="216"/>
+      <c r="G57" s="216"/>
+      <c r="H57" s="216"/>
+      <c r="I57" s="216"/>
+      <c r="J57" s="216"/>
+      <c r="K57" s="216"/>
+      <c r="L57" s="216"/>
     </row>
     <row r="58" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="105" t="s">
@@ -42110,20 +41626,20 @@
       <c r="A70" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="B70" s="205" t="str">
+      <c r="B70" s="216" t="str">
         <f>AW4</f>
         <v>L*^[H] vs. ^[L*H]</v>
       </c>
-      <c r="C70" s="205"/>
-      <c r="D70" s="205"/>
-      <c r="E70" s="205"/>
-      <c r="F70" s="205"/>
-      <c r="G70" s="205"/>
-      <c r="H70" s="205"/>
-      <c r="I70" s="205"/>
-      <c r="J70" s="205"/>
-      <c r="K70" s="205"/>
-      <c r="L70" s="205"/>
+      <c r="C70" s="216"/>
+      <c r="D70" s="216"/>
+      <c r="E70" s="216"/>
+      <c r="F70" s="216"/>
+      <c r="G70" s="216"/>
+      <c r="H70" s="216"/>
+      <c r="I70" s="216"/>
+      <c r="J70" s="216"/>
+      <c r="K70" s="216"/>
+      <c r="L70" s="216"/>
     </row>
     <row r="71" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="105" t="s">
@@ -42609,12 +42125,6 @@
     <row r="112" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="V4:AD4"/>
-    <mergeCell ref="AE4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:BE4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B57:L57"/>
@@ -42622,376 +42132,382 @@
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="A41:L41"/>
     <mergeCell ref="B17:L17"/>
+    <mergeCell ref="V4:AD4"/>
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:BE4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="J14:K15 BC14:BD15 AT14:AU15 AK14:AL15 AB14:AC15 S14:T15 S6:T8 AB6:AC8 AK6:AL8 AT6:AU8 BC6:BD8 J6:K8 J10:K12 BC10:BD12 AT10:AU12 AK10:AL12 AB10:AC12 S10:T12">
-    <cfRule type="cellIs" dxfId="224" priority="132" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="236" priority="132" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="223" priority="133" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="235" priority="133" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="222" priority="134" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="234" priority="134" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="221" priority="135" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="233" priority="135" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE14:BE15 AV14:AV15 AM14:AM15 AD14:AD15 U14:U15 L14:L15 L6:L8 U6:U8 AD6:AD8 AM6:AM8 AV6:AV8 BE6:BE8 BE10:BE12 AV10:AV12 AM10:AM12 AD10:AD12 U10:U12 L10:L12">
-    <cfRule type="containsText" dxfId="220" priority="127" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="232" priority="127" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="219" priority="128" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="231" priority="128" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="218" priority="129" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="230" priority="129" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="217" priority="130" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="229" priority="130" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="216" priority="131" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="228" priority="131" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J27:K28 J19:K21 J23:K25">
-    <cfRule type="cellIs" dxfId="215" priority="123" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="227" priority="123" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="214" priority="124" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="226" priority="124" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="213" priority="125" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="225" priority="125" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="212" priority="126" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="224" priority="126" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L27:L28 L19:L21 L23:L25">
-    <cfRule type="containsText" dxfId="211" priority="118" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="223" priority="118" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="210" priority="119" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="222" priority="119" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="209" priority="120" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="221" priority="120" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="208" priority="121" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="220" priority="121" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="207" priority="122" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="219" priority="122" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J40:K40 J32:K34 J36:K38">
-    <cfRule type="cellIs" dxfId="206" priority="114" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="218" priority="114" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="205" priority="115" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="217" priority="115" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="204" priority="116" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="216" priority="116" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="203" priority="117" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="215" priority="117" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L40 L32:L34 L36:L38">
-    <cfRule type="containsText" dxfId="202" priority="109" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="214" priority="109" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="201" priority="110" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="213" priority="110" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="200" priority="111" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="212" priority="111" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="199" priority="112" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="211" priority="112" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="198" priority="113" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="210" priority="113" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L32)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J54:K55 J46:K48 J50:K52">
-    <cfRule type="cellIs" dxfId="197" priority="105" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="209" priority="105" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="196" priority="106" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="208" priority="106" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="195" priority="107" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="207" priority="107" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="194" priority="108" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="206" priority="108" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L54:L55 L46:L48 L50:L52">
-    <cfRule type="containsText" dxfId="193" priority="100" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="205" priority="100" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="192" priority="101" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="204" priority="101" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="191" priority="102" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="203" priority="102" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="190" priority="103" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="202" priority="103" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="189" priority="104" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="201" priority="104" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J67:K68 J59:K61 J63:K65">
-    <cfRule type="cellIs" dxfId="188" priority="96" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="200" priority="96" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="187" priority="97" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="199" priority="97" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="186" priority="98" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="198" priority="98" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="185" priority="99" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="197" priority="99" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L67:L68 L59:L61 L63:L65">
-    <cfRule type="containsText" dxfId="184" priority="91" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="196" priority="91" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="183" priority="92" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="195" priority="92" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="182" priority="93" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="194" priority="93" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="181" priority="94" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="193" priority="94" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="180" priority="95" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="192" priority="95" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J80:K80 J72:K74 J76:K78">
-    <cfRule type="cellIs" dxfId="179" priority="87" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="191" priority="87" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="178" priority="88" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="190" priority="88" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="177" priority="89" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="189" priority="89" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="176" priority="90" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="188" priority="90" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L80 L72:L74 L76:L78">
-    <cfRule type="containsText" dxfId="175" priority="82" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="187" priority="82" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="174" priority="83" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="186" priority="83" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="173" priority="84" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="185" priority="84" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="172" priority="85" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="184" priority="85" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="171" priority="86" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="183" priority="86" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J9:K9 BC9:BD9 AT9:AU9 AK9:AL9 AB9:AC9 S9:T9">
-    <cfRule type="cellIs" dxfId="170" priority="51" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="182" priority="51" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="169" priority="52" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="181" priority="52" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="168" priority="53" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="180" priority="53" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="167" priority="54" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="179" priority="54" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE9 AV9 AM9 AD9 U9 L9">
-    <cfRule type="containsText" dxfId="166" priority="46" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="178" priority="46" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="165" priority="47" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="177" priority="47" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="164" priority="48" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="176" priority="48" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="163" priority="49" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="175" priority="49" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="162" priority="50" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="174" priority="50" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J22:K22">
-    <cfRule type="cellIs" dxfId="161" priority="42" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="42" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="160" priority="43" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="172" priority="43" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="159" priority="44" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="44" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="158" priority="45" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="170" priority="45" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L22">
-    <cfRule type="containsText" dxfId="157" priority="37" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="169" priority="37" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="156" priority="38" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="168" priority="38" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="155" priority="39" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="167" priority="39" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="154" priority="40" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="166" priority="40" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="153" priority="41" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="165" priority="41" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J35:K35">
-    <cfRule type="cellIs" dxfId="152" priority="33" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="164" priority="33" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="151" priority="34" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="34" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="150" priority="35" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="162" priority="35" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="149" priority="36" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="36" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L35">
-    <cfRule type="containsText" dxfId="148" priority="28" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="160" priority="28" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="147" priority="29" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="159" priority="29" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="146" priority="30" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="158" priority="30" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="145" priority="31" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="157" priority="31" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L35)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="144" priority="32" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="156" priority="32" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L35)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J49:K49">
-    <cfRule type="cellIs" dxfId="143" priority="24" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="24" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="142" priority="25" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="154" priority="25" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="141" priority="26" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="26" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="140" priority="27" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="152" priority="27" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L49">
-    <cfRule type="containsText" dxfId="139" priority="19" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="151" priority="19" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="138" priority="20" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="150" priority="20" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="137" priority="21" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="149" priority="21" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="136" priority="22" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="148" priority="22" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L49)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="135" priority="23" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="147" priority="23" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L49)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J62:K62">
-    <cfRule type="cellIs" dxfId="134" priority="15" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="146" priority="15" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="133" priority="16" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="16" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="132" priority="17" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="144" priority="17" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="131" priority="18" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="18" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L62">
-    <cfRule type="containsText" dxfId="130" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="142" priority="10" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="129" priority="11" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="141" priority="11" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="128" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="140" priority="12" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="127" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="139" priority="13" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="126" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="138" priority="14" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J75:K75">
-    <cfRule type="cellIs" dxfId="125" priority="6" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="6" stopIfTrue="1" operator="lessThan">
       <formula>0.0001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="7" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="136" priority="7" stopIfTrue="1" operator="lessThan">
       <formula>0.001</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="8" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="8" stopIfTrue="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="9" stopIfTrue="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="134" priority="9" stopIfTrue="1" operator="lessThan">
       <formula>0.1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L75">
-    <cfRule type="containsText" dxfId="121" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
+    <cfRule type="containsText" dxfId="133" priority="1" stopIfTrue="1" operator="containsText" text="p&lt;0.0001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.0001",L75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="120" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
+    <cfRule type="containsText" dxfId="132" priority="2" stopIfTrue="1" operator="containsText" text="p&lt;0.001">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.001",L75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="119" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
+    <cfRule type="containsText" dxfId="131" priority="3" stopIfTrue="1" operator="containsText" text="p&lt;0.01">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.01",L75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="118" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
+    <cfRule type="containsText" dxfId="130" priority="4" stopIfTrue="1" operator="containsText" text="p&lt;0.05">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.05",L75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="117" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
+    <cfRule type="containsText" dxfId="129" priority="5" stopIfTrue="1" operator="containsText" text="p&lt;0.1">
       <formula>NOT(ISERROR(SEARCH("p&lt;0.1",L75)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -43011,9 +42527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCED89B-7541-4709-99D1-0E40953C2302}">
   <dimension ref="G5:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -43046,8 +42560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DF4A6B-607B-48B2-B587-59CE43E9BBC5}">
   <dimension ref="G5:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -45273,77 +44787,77 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F14:F21 O14:Q21 X14:Y17 F3:H11 O3:Q11 X3:Y11">
-    <cfRule type="cellIs" dxfId="116" priority="16" operator="lessThan">
+    <cfRule type="cellIs" dxfId="128" priority="16" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3:H11">
-    <cfRule type="cellIs" dxfId="115" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="15" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P3:Q11">
-    <cfRule type="cellIs" dxfId="114" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="126" priority="13" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P14:Q21">
-    <cfRule type="cellIs" dxfId="113" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="12" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:H21">
-    <cfRule type="cellIs" dxfId="112" priority="11" operator="lessThan">
+    <cfRule type="cellIs" dxfId="124" priority="11" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7:H10">
-    <cfRule type="cellIs" dxfId="111" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="10" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7:H10">
-    <cfRule type="cellIs" dxfId="110" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="122" priority="9" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7:Q10">
-    <cfRule type="cellIs" dxfId="109" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="8" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P7:Q10">
-    <cfRule type="cellIs" dxfId="108" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="120" priority="7" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X7:Y10">
-    <cfRule type="cellIs" dxfId="107" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="6" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F18:F21">
-    <cfRule type="cellIs" dxfId="106" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="118" priority="5" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G18:H21">
-    <cfRule type="cellIs" dxfId="105" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="4" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18:Q21">
-    <cfRule type="cellIs" dxfId="104" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="116" priority="3" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P18:Q21">
-    <cfRule type="cellIs" dxfId="103" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="2" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X18:Y21">
-    <cfRule type="cellIs" dxfId="102" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="114" priority="1" operator="lessThan">
       <formula>0.05</formula>
     </cfRule>
   </conditionalFormatting>
@@ -45364,36 +44878,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93414424-DC29-4A1C-A20E-538ED8ECBFE3}">
   <dimension ref="A1:BE27"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="66" zoomScaleNormal="55" zoomScaleSheetLayoutView="66" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="66" zoomScaleNormal="55" zoomScaleSheetLayoutView="66" workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5546875" style="215" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="9.6640625" style="211" customWidth="1"/>
-    <col min="5" max="7" width="10.44140625" style="211" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" style="211" customWidth="1"/>
-    <col min="9" max="9" width="12.21875" style="211" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" style="211" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="211"/>
+    <col min="1" max="1" width="13.5546875" style="198" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="9.6640625" style="194" customWidth="1"/>
+    <col min="5" max="7" width="10.44140625" style="194" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" style="194" customWidth="1"/>
+    <col min="9" max="9" width="12.21875" style="194" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" style="194" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="194"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" s="36" customFormat="1" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="208" t="s">
+      <c r="A1" s="219" t="s">
         <v>76</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
-      <c r="E1" s="208"/>
-      <c r="F1" s="208"/>
-      <c r="G1" s="208"/>
-      <c r="H1" s="208"/>
-      <c r="I1" s="208"/>
-      <c r="J1" s="208"/>
-      <c r="K1" s="209"/>
-      <c r="L1" s="209"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
+      <c r="K1" s="193"/>
+      <c r="L1" s="193"/>
       <c r="S1" s="39"/>
       <c r="T1" s="39"/>
       <c r="U1" s="39"/>
@@ -45421,8 +44935,8 @@
       <c r="H2" s="192"/>
       <c r="I2" s="192"/>
       <c r="J2" s="192"/>
-      <c r="K2" s="209"/>
-      <c r="L2" s="209"/>
+      <c r="K2" s="193"/>
+      <c r="L2" s="193"/>
       <c r="S2" s="39"/>
       <c r="T2" s="39"/>
       <c r="U2" s="39"/>
@@ -45439,52 +44953,52 @@
       <c r="BD2" s="39"/>
       <c r="BE2" s="39"/>
     </row>
-    <row r="3" spans="1:57" s="218" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="217" t="s">
+    <row r="3" spans="1:57" s="200" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="199" t="s">
         <v>58</v>
       </c>
-      <c r="B3" s="217"/>
-      <c r="C3" s="217"/>
-      <c r="D3" s="217"/>
-      <c r="E3" s="217"/>
-      <c r="F3" s="217"/>
-      <c r="G3" s="217"/>
-      <c r="H3" s="217"/>
-      <c r="I3" s="217"/>
-      <c r="J3" s="217"/>
-      <c r="K3" s="217"/>
-      <c r="L3" s="217"/>
-      <c r="S3" s="219"/>
-      <c r="T3" s="219"/>
-      <c r="U3" s="219"/>
-      <c r="AB3" s="219"/>
-      <c r="AC3" s="219"/>
-      <c r="AD3" s="219"/>
-      <c r="AK3" s="219"/>
-      <c r="AL3" s="219"/>
-      <c r="AM3" s="219"/>
-      <c r="AT3" s="219"/>
-      <c r="AU3" s="219"/>
-      <c r="AV3" s="219"/>
-      <c r="BC3" s="219"/>
-      <c r="BD3" s="219"/>
-      <c r="BE3" s="219"/>
+      <c r="B3" s="199"/>
+      <c r="C3" s="199"/>
+      <c r="D3" s="199"/>
+      <c r="E3" s="199"/>
+      <c r="F3" s="199"/>
+      <c r="G3" s="199"/>
+      <c r="H3" s="199"/>
+      <c r="I3" s="199"/>
+      <c r="J3" s="199"/>
+      <c r="K3" s="199"/>
+      <c r="L3" s="199"/>
+      <c r="S3" s="201"/>
+      <c r="T3" s="201"/>
+      <c r="U3" s="201"/>
+      <c r="AB3" s="201"/>
+      <c r="AC3" s="201"/>
+      <c r="AD3" s="201"/>
+      <c r="AK3" s="201"/>
+      <c r="AL3" s="201"/>
+      <c r="AM3" s="201"/>
+      <c r="AT3" s="201"/>
+      <c r="AU3" s="201"/>
+      <c r="AV3" s="201"/>
+      <c r="BC3" s="201"/>
+      <c r="BD3" s="201"/>
+      <c r="BE3" s="201"/>
     </row>
     <row r="4" spans="1:57" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B4" s="216" t="s">
+      <c r="B4" s="220" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="216"/>
-      <c r="D4" s="216"/>
-      <c r="E4" s="216"/>
-      <c r="F4" s="216"/>
-      <c r="G4" s="216"/>
-      <c r="H4" s="216"/>
-      <c r="I4" s="216"/>
-      <c r="J4" s="216"/>
+      <c r="C4" s="220"/>
+      <c r="D4" s="220"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
+      <c r="G4" s="220"/>
+      <c r="H4" s="220"/>
+      <c r="I4" s="220"/>
+      <c r="J4" s="220"/>
     </row>
     <row r="5" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="105" t="s">
@@ -45526,10 +45040,10 @@
         <f>[14]Mode_PA_l_f0_b1!K1</f>
         <v>signif.</v>
       </c>
-      <c r="K5" s="212" t="s">
+      <c r="K5" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="L5" s="212" t="s">
+      <c r="L5" s="195" t="s">
         <v>75</v>
       </c>
     </row>
@@ -45573,11 +45087,11 @@
         <f>[14]Mode_PA_l_f0_b1!K14</f>
         <v>0</v>
       </c>
-      <c r="K6" s="212">
-        <f t="shared" ref="K6:K14" si="0">B6-D6</f>
+      <c r="K6" s="195">
+        <f t="shared" ref="K6:K12" si="0">B6-D6</f>
         <v>0.34400000000000003</v>
       </c>
-      <c r="L6" s="213">
+      <c r="L6" s="196">
         <f>H6</f>
         <v>0.11890000000000001</v>
       </c>
@@ -45622,11 +45136,11 @@
         <f>[15]Mode_PA_h_f0_b1!K14</f>
         <v>(p&lt;0.1)</v>
       </c>
-      <c r="K7" s="212">
+      <c r="K7" s="195">
         <f t="shared" si="0"/>
         <v>0.47599999999999998</v>
       </c>
-      <c r="L7" s="213">
+      <c r="L7" s="196">
         <f t="shared" ref="L7:L14" si="1">H7</f>
         <v>5.2999999999999999E-2</v>
       </c>
@@ -45671,11 +45185,11 @@
         <f>[16]Mode_PA_f0_exc_b1!K14</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="K8" s="212">
+      <c r="K8" s="195">
         <f t="shared" si="0"/>
         <v>0.36799999999999999</v>
       </c>
-      <c r="L8" s="213">
+      <c r="L8" s="196">
         <f t="shared" si="1"/>
         <v>1.2999999999999999E-3</v>
       </c>
@@ -45720,11 +45234,11 @@
         <f>[17]Mode_PA_lh_mean_f0_b1!K14</f>
         <v>0</v>
       </c>
-      <c r="K9" s="212">
+      <c r="K9" s="195">
         <f t="shared" si="0"/>
         <v>0.39800000000000002</v>
       </c>
-      <c r="L9" s="213">
+      <c r="L9" s="196">
         <f t="shared" si="1"/>
         <v>0.4214</v>
       </c>
@@ -45769,8 +45283,8 @@
         <f t="shared" si="2"/>
         <v>signif.</v>
       </c>
-      <c r="K10" s="212"/>
-      <c r="L10" s="213"/>
+      <c r="K10" s="195"/>
+      <c r="L10" s="196"/>
     </row>
     <row r="11" spans="1:57" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="86" t="s">
@@ -45812,11 +45326,11 @@
         <f>[18]Mode_PA_l_t_b1!K14</f>
         <v>0</v>
       </c>
-      <c r="K11" s="212">
+      <c r="K11" s="195">
         <f t="shared" si="0"/>
         <v>5.0489999999999995</v>
       </c>
-      <c r="L11" s="213">
+      <c r="L11" s="196">
         <f t="shared" si="1"/>
         <v>0.37669999999999998</v>
       </c>
@@ -45861,11 +45375,11 @@
         <f>[19]Mode_PA_h_t_b1!K14</f>
         <v>p&lt;0.0001</v>
       </c>
-      <c r="K12" s="212">
+      <c r="K12" s="195">
         <f t="shared" si="0"/>
         <v>7.617999999999995</v>
       </c>
-      <c r="L12" s="213">
+      <c r="L12" s="196">
         <f t="shared" si="1"/>
         <v>4.7999999999999998E-34</v>
       </c>
@@ -45910,8 +45424,8 @@
         <f t="shared" si="3"/>
         <v>signif.</v>
       </c>
-      <c r="K13" s="212"/>
-      <c r="L13" s="213"/>
+      <c r="K13" s="195"/>
+      <c r="L13" s="196"/>
     </row>
     <row r="14" spans="1:57" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
@@ -45953,11 +45467,11 @@
         <f>[20]Mode_PA_lh_slope_b1!K14</f>
         <v>p&lt;0.001</v>
       </c>
-      <c r="K14" s="214">
+      <c r="K14" s="197">
         <f>B14-D14</f>
         <v>2.2330000000000001</v>
       </c>
-      <c r="L14" s="213">
+      <c r="L14" s="196">
         <f t="shared" si="1"/>
         <v>9.8599999999999998E-5</v>
       </c>
@@ -45973,11 +45487,11 @@
       <c r="H15" s="94"/>
       <c r="I15" s="94"/>
       <c r="J15" s="181"/>
-      <c r="K15" s="214"/>
-      <c r="L15" s="213"/>
+      <c r="K15" s="197"/>
+      <c r="L15" s="196"/>
     </row>
-    <row r="16" spans="1:57" s="221" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="220" t="s">
+    <row r="16" spans="1:57" s="203" customFormat="1" ht="13.05" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="202" t="s">
         <v>59</v>
       </c>
     </row>
@@ -45985,17 +45499,17 @@
       <c r="A17" s="125" t="s">
         <v>72</v>
       </c>
-      <c r="B17" s="210" t="s">
+      <c r="B17" s="221" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="210"/>
-      <c r="D17" s="210"/>
-      <c r="E17" s="210"/>
-      <c r="F17" s="210"/>
-      <c r="G17" s="210"/>
-      <c r="H17" s="210"/>
-      <c r="I17" s="210"/>
-      <c r="J17" s="210"/>
+      <c r="C17" s="221"/>
+      <c r="D17" s="221"/>
+      <c r="E17" s="221"/>
+      <c r="F17" s="221"/>
+      <c r="G17" s="221"/>
+      <c r="H17" s="221"/>
+      <c r="I17" s="221"/>
+      <c r="J17" s="221"/>
     </row>
     <row r="18" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="105" t="s">
@@ -46037,10 +45551,10 @@
         <f>[14]Mode_PA_l_f0_b1!K1</f>
         <v>signif.</v>
       </c>
-      <c r="K18" s="212" t="s">
+      <c r="K18" s="195" t="s">
         <v>74</v>
       </c>
-      <c r="L18" s="212" t="s">
+      <c r="L18" s="195" t="s">
         <v>75</v>
       </c>
     </row>
@@ -46084,11 +45598,11 @@
         <f>[14]Mode_PA_l_f0_b1!K15</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="K19" s="214">
+      <c r="K19" s="197">
         <f>B19-D19</f>
         <v>3.6639999999999997</v>
       </c>
-      <c r="L19" s="213">
+      <c r="L19" s="196">
         <f>H19</f>
         <v>2.0999999999999999E-3</v>
       </c>
@@ -46133,11 +45647,11 @@
         <f>[15]Mode_PA_h_f0_b1!K15</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="K20" s="212">
+      <c r="K20" s="195">
         <f>B20-D20</f>
         <v>3.9149999999999991</v>
       </c>
-      <c r="L20" s="213">
+      <c r="L20" s="196">
         <f>H20</f>
         <v>5.7999999999999996E-3</v>
       </c>
@@ -46182,11 +45696,11 @@
         <f>[16]Mode_PA_f0_exc_b1!K15</f>
         <v>0</v>
       </c>
-      <c r="K21" s="212">
+      <c r="K21" s="195">
         <f>B21-D21</f>
         <v>1.3460000000000001</v>
       </c>
-      <c r="L21" s="213">
+      <c r="L21" s="196">
         <f>H21</f>
         <v>0.29959999999999998</v>
       </c>
@@ -46231,11 +45745,11 @@
         <f>[17]Mode_PA_lh_mean_f0_b1!K15</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="K22" s="212">
+      <c r="K22" s="195">
         <f>B22-D22</f>
         <v>3.71</v>
       </c>
-      <c r="L22" s="213">
+      <c r="L22" s="196">
         <f>H22</f>
         <v>3.2000000000000002E-3</v>
       </c>
@@ -46245,43 +45759,43 @@
         <v>73</v>
       </c>
       <c r="B23" s="105" t="str">
-        <f>B18</f>
+        <f t="shared" ref="B23:J23" si="4">B18</f>
         <v>estimate</v>
       </c>
       <c r="C23" s="105" t="str">
-        <f>C18</f>
+        <f t="shared" si="4"/>
         <v>std.error</v>
       </c>
       <c r="D23" s="105" t="str">
-        <f>D18</f>
+        <f t="shared" si="4"/>
         <v>2.5% CI</v>
       </c>
       <c r="E23" s="105" t="str">
-        <f>E18</f>
+        <f t="shared" si="4"/>
         <v>97.5% CI</v>
       </c>
       <c r="F23" s="105" t="str">
-        <f>F18</f>
+        <f t="shared" si="4"/>
         <v>z.value</v>
       </c>
       <c r="G23" s="105" t="str">
-        <f>G18</f>
+        <f t="shared" si="4"/>
         <v>df</v>
       </c>
       <c r="H23" s="105" t="str">
-        <f>H18</f>
+        <f t="shared" si="4"/>
         <v>p.value</v>
       </c>
       <c r="I23" s="107" t="str">
-        <f>I18</f>
+        <f t="shared" si="4"/>
         <v>p.adj (BH)</v>
       </c>
       <c r="J23" s="107" t="str">
-        <f>J18</f>
+        <f t="shared" si="4"/>
         <v>signif.</v>
       </c>
-      <c r="K23" s="212"/>
-      <c r="L23" s="213"/>
+      <c r="K23" s="195"/>
+      <c r="L23" s="196"/>
     </row>
     <row r="24" spans="1:12" ht="33.6" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="86" t="s">
@@ -46323,11 +45837,11 @@
         <f>[18]Mode_PA_l_t_b1!K15</f>
         <v>p&lt;0.001</v>
       </c>
-      <c r="K24" s="212">
+      <c r="K24" s="195">
         <f>B24-D24</f>
         <v>16.97699999999999</v>
       </c>
-      <c r="L24" s="213">
+      <c r="L24" s="196">
         <f>H24</f>
         <v>2.41E-4</v>
       </c>
@@ -46372,11 +45886,11 @@
         <f>[19]Mode_PA_h_t_b1!K15</f>
         <v>p&lt;0.01</v>
       </c>
-      <c r="K25" s="212">
+      <c r="K25" s="195">
         <f>B25-D25</f>
         <v>31.813999999999993</v>
       </c>
-      <c r="L25" s="213">
+      <c r="L25" s="196">
         <f>H25</f>
         <v>6.3E-3</v>
       </c>
@@ -46386,43 +45900,43 @@
         <v>42</v>
       </c>
       <c r="B26" s="105" t="str">
-        <f>B18</f>
+        <f t="shared" ref="B26:J26" si="5">B18</f>
         <v>estimate</v>
       </c>
       <c r="C26" s="105" t="str">
-        <f>C18</f>
+        <f t="shared" si="5"/>
         <v>std.error</v>
       </c>
       <c r="D26" s="105" t="str">
-        <f>D18</f>
+        <f t="shared" si="5"/>
         <v>2.5% CI</v>
       </c>
       <c r="E26" s="105" t="str">
-        <f>E18</f>
+        <f t="shared" si="5"/>
         <v>97.5% CI</v>
       </c>
       <c r="F26" s="105" t="str">
-        <f>F18</f>
+        <f t="shared" si="5"/>
         <v>z.value</v>
       </c>
       <c r="G26" s="105" t="str">
-        <f>G18</f>
+        <f t="shared" si="5"/>
         <v>df</v>
       </c>
       <c r="H26" s="105" t="str">
-        <f>H18</f>
+        <f t="shared" si="5"/>
         <v>p.value</v>
       </c>
       <c r="I26" s="107" t="str">
-        <f>I18</f>
+        <f t="shared" si="5"/>
         <v>p.adj (BH)</v>
       </c>
       <c r="J26" s="107" t="str">
-        <f>J18</f>
+        <f t="shared" si="5"/>
         <v>signif.</v>
       </c>
-      <c r="K26" s="212"/>
-      <c r="L26" s="213"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="196"/>
     </row>
     <row r="27" spans="1:12" ht="33.6" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A27" s="26" t="s">
@@ -46464,11 +45978,11 @@
         <f>[20]Mode_PA_lh_slope_b1!K15</f>
         <v>0</v>
       </c>
-      <c r="K27" s="214">
+      <c r="K27" s="197">
         <f>B27-D27</f>
         <v>8.2059999999999995</v>
       </c>
-      <c r="L27" s="213">
+      <c r="L27" s="196">
         <f>H27</f>
         <v>0.35049999999999998</v>
       </c>

--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB49050-ACD9-4988-9364-6061221AF27E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D8F94E-F1FD-43B2-A7AF-87CD73BBEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="835" activeTab="5" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="835" firstSheet="5" activeTab="8" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
   <sheets>
     <sheet name="B0 Mode" sheetId="8" r:id="rId1"/>
@@ -5723,16 +5723,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFE66101"/>
+      <color rgb="FFFF9F42"/>
+      <color rgb="FFB5B0F3"/>
       <color rgb="FF1B9E77"/>
-      <color rgb="FFE66101"/>
       <color rgb="FFFC8D62"/>
       <color rgb="FF7570B3"/>
       <color rgb="FFE7298A"/>
       <color rgb="FFD95F02"/>
       <color rgb="FFF2F2F2"/>
       <color rgb="FF66C2A5"/>
-      <color rgb="FFFFD92F"/>
-      <color rgb="FF8DA0CB"/>
     </mruColors>
   </colors>
   <extLst>
@@ -7934,7 +7934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89D9BBDE-F560-4823-9BAF-CE33F41188F5}" type="CELLRANGE">
+                    <a:fld id="{C91F21AA-7DBB-43BE-BD1C-062203AD38C5}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7967,7 +7967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{0AD738D4-9EF1-4ED8-8DBE-A2B3835BB958}" type="CELLRANGE">
+                    <a:fld id="{8FD6D409-1D31-4580-98AF-7A414D9E9130}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8594,7 +8594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{65A2D891-6568-4F75-A9C4-AFCFA2313CF7}" type="CELLRANGE">
+                    <a:fld id="{5EDF10E0-3C1A-4E26-861F-6B60C51871A7}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8627,7 +8627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{43C55299-F3A3-46F2-BD0A-CAB98C647DCE}" type="CELLRANGE">
+                    <a:fld id="{B21831EE-A9D2-4E7F-ACF8-713A1F19B871}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8661,7 +8661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{A52740A7-2D7B-4B0C-A9DB-074DF7F1C6E3}" type="CELLRANGE">
+                    <a:fld id="{05F69E1B-A523-425D-9C51-B6AA91E573ED}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8695,7 +8695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4AA38390-644E-4AE7-8D20-E980E40AE695}" type="CELLRANGE">
+                    <a:fld id="{4DDCD7C6-18FA-4ED4-91B2-5127E787286D}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9961,7 +9961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4A0D0E78-4937-4771-819C-E457398846F2}" type="CELLRANGE">
+                    <a:fld id="{DE8E5A7D-54FD-4A1E-A16D-B2F592E3D4AC}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9994,7 +9994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DF9E6BB2-49F9-4BCA-9DDF-94C9A327447A}" type="CELLRANGE">
+                    <a:fld id="{1BDEEADA-BAF9-4AF1-9277-F03B0489C7EF}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10028,7 +10028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DDF704CA-20F8-4EA6-B6D7-8D4ABBF70503}" type="CELLRANGE">
+                    <a:fld id="{89E849DF-4ED3-4350-BD99-ABD29328F294}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10062,7 +10062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8039A577-93D8-4472-9BB3-2B3C4BBF5547}" type="CELLRANGE">
+                    <a:fld id="{7EF091AA-46F7-46F2-8624-F419CF842AA2}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10738,7 +10738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FA2A84D0-93EE-4CFB-93B5-1840FFE3C1F8}" type="CELLRANGE">
+                    <a:fld id="{E5EB56EB-1393-448A-ABFA-8EC8BF6979D1}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10771,7 +10771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{366917D8-5F57-42B4-839B-E1AFC63A76FF}" type="CELLRANGE">
+                    <a:fld id="{FC63EF7F-0ABC-4B61-BD59-0B625B60C9A8}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12495,84 +12495,15 @@
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
+          <c:idx val="2"/>
+          <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Graph Data'!$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MDC</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v> a. % H* L* L*H %</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="7570B3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Graph Data'!$B$3,'Graph Data'!$B$14)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>94.498000000000005</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>318.06299999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Graph Data'!$K$3,'Graph Data'!$K$14)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>86.834999999999994</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>92.555000000000007</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-FADB-4C93-A067-1456C06C53AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph Data'!$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MWH</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="FC8D62"/>
+                <a:srgbClr val="E66101"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -12617,124 +12548,34 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:idx val="4"/>
+          <c:order val="4"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'Graph Data'!$A$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MYN</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v> b. % H* !H* L*H %</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100">
               <a:solidFill>
-                <a:srgbClr val="1B9E77"/>
+                <a:srgbClr val="FF9F42"/>
               </a:solidFill>
             </a:ln>
           </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Graph Data'!$B$5,'Graph Data'!$B$16)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>96.585999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>317.72000000000003</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
           <c:yVal>
-            <c:numRef>
-              <c:f>('Graph Data'!$K$5,'Graph Data'!$K$16)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>87.975999999999999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>93.634</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-FADB-4C93-A067-1456C06C53AF}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Graph Data'!$A$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MDQ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100">
-              <a:solidFill>
-                <a:srgbClr val="E7298A"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>('Graph Data'!$B$6,'Graph Data'!$B$17)</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>79.626999999999995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>303.755</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>('Graph Data'!$K$6,'Graph Data'!$K$17)</c:f>
-              <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>87.183000000000007</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>94.043000000000006</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-FADB-4C93-A067-1456C06C53AF}"/>
+              <c16:uniqueId val="{00000000-A164-4DA6-AD07-82E406823E2D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12748,11 +12589,217 @@
         </c:dLbls>
         <c:axId val="950869344"/>
         <c:axId val="765174752"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:v> a. % H* L* L*H %</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="38100">
+                    <a:solidFill>
+                      <a:srgbClr val="7570B3"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('Graph Data'!$B$3,'Graph Data'!$B$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>94.498000000000005</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>318.06299999999999</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('Graph Data'!$K$3,'Graph Data'!$K$14)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>86.834999999999994</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>92.555000000000007</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-FADB-4C93-A067-1456C06C53AF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v> c. %H (*) L*H %</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="38100">
+                    <a:solidFill>
+                      <a:srgbClr val="1B9E77"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('Graph Data'!$B$5,'Graph Data'!$B$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>96.585999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>317.72000000000003</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('Graph Data'!$K$5,'Graph Data'!$K$16)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>87.975999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>93.634</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-FADB-4C93-A067-1456C06C53AF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:v> d. % H* (*) L*H %</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="38100">
+                    <a:solidFill>
+                      <a:srgbClr val="B5B0F3"/>
+                    </a:solidFill>
+                  </a:ln>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('Graph Data'!$B$6,'Graph Data'!$B$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>79.626999999999995</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>303.755</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>('Graph Data'!$K$6,'Graph Data'!$K$17)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0</c:formatCode>
+                      <c:ptCount val="2"/>
+                      <c:pt idx="0">
+                        <c:v>87.183000000000007</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>94.043000000000006</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-FADB-4C93-A067-1456C06C53AF}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="950869344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="600"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -12932,10 +12979,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.65730375439286615"/>
-          <c:y val="0.52522304072404857"/>
-          <c:w val="0.25228480891784705"/>
-          <c:h val="0.2537818862825918"/>
+          <c:x val="0.66137719198143707"/>
+          <c:y val="0.24909829825297367"/>
+          <c:w val="0.27489919738293583"/>
+          <c:h val="0.16143492169609111"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -12944,11 +12991,7 @@
           <a:schemeClr val="bg1"/>
         </a:solidFill>
         <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="bg2">
-              <a:lumMod val="90000"/>
-            </a:schemeClr>
-          </a:solidFill>
+          <a:noFill/>
         </a:ln>
       </c:spPr>
       <c:txPr>
@@ -25688,8 +25731,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>256310</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>153310</xdr:rowOff>
     </xdr:to>
@@ -42560,7 +42603,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6DF4A6B-607B-48B2-B587-59CE43E9BBC5}">
   <dimension ref="G5:AB33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
@@ -42595,7 +42638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FA75D8A-458C-4EF4-8CA5-966D1B6FEE89}">
   <dimension ref="A1:AC60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
@@ -46128,14 +46171,69 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5919AE2-0160-41E7-B7DF-2FBBFC2636AC}">
-  <dimension ref="A1"/>
+  <dimension ref="K17:L25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="17" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K17">
+        <v>0.85098039199999997</v>
+      </c>
+      <c r="L17" t="str">
+        <f>DEC2HEX((ROUND(K17*255,0)))</f>
+        <v>D9</v>
+      </c>
+    </row>
+    <row r="18" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K18">
+        <v>0.37254902000000001</v>
+      </c>
+      <c r="L18" t="str">
+        <f t="shared" ref="L18:L19" si="0">DEC2HEX((ROUND(K18*255,0)))</f>
+        <v>5F</v>
+      </c>
+    </row>
+    <row r="19" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K19">
+        <v>7.843137E-3</v>
+      </c>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23" t="str">
+        <f t="shared" ref="L23:L25" si="1">DEC2HEX((ROUND(K23*255,0)))</f>
+        <v>FF</v>
+      </c>
+    </row>
+    <row r="24" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K24">
+        <v>0.62254902000000001</v>
+      </c>
+      <c r="L24" t="str">
+        <f t="shared" si="1"/>
+        <v>9F</v>
+      </c>
+    </row>
+    <row r="25" spans="11:12" x14ac:dyDescent="0.3">
+      <c r="K25">
+        <v>0.257843137</v>
+      </c>
+      <c r="L25" t="str">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
+++ b/Ch_7_Sentence_Modes/Excel/Mode AND Nuc PA and Phonetics LMEMs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antoi\Github\PhD\Ch_7_Sentence_Modes\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D8F94E-F1FD-43B2-A7AF-87CD73BBEA0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57DA34B-01B2-4AE4-A584-A60505695F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" tabRatio="835" firstSheet="5" activeTab="8" xr2:uid="{5F934F14-35FB-48F8-B9CC-AA2F647F3C27}"/>
   </bookViews>
@@ -7934,7 +7934,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C91F21AA-7DBB-43BE-BD1C-062203AD38C5}" type="CELLRANGE">
+                    <a:fld id="{DCEB0A6D-7155-4813-968D-AFB92A3A81DD}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -7967,7 +7967,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{8FD6D409-1D31-4580-98AF-7A414D9E9130}" type="CELLRANGE">
+                    <a:fld id="{F5910CB5-FF10-43DD-8684-53AE797AFB0B}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8594,7 +8594,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{5EDF10E0-3C1A-4E26-861F-6B60C51871A7}" type="CELLRANGE">
+                    <a:fld id="{873C750E-617F-4C40-B9EB-7FE220576FAB}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8627,7 +8627,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{B21831EE-A9D2-4E7F-ACF8-713A1F19B871}" type="CELLRANGE">
+                    <a:fld id="{382CDCC6-C650-4EBF-9963-7909B3EE574D}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8661,7 +8661,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{05F69E1B-A523-425D-9C51-B6AA91E573ED}" type="CELLRANGE">
+                    <a:fld id="{3AC344D8-5F0B-47C0-BAC8-42993DAF5222}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -8695,7 +8695,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{4DDCD7C6-18FA-4ED4-91B2-5127E787286D}" type="CELLRANGE">
+                    <a:fld id="{3198F9B6-6EB9-4522-8713-01570D9ACF58}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9345,7 +9345,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{208BAFFF-011F-433C-BD6A-217BAA6C4C16}" type="CELLRANGE">
+                    <a:fld id="{367CFE36-DE18-4584-839A-D904C711BA4B}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9961,7 +9961,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DE8E5A7D-54FD-4A1E-A16D-B2F592E3D4AC}" type="CELLRANGE">
+                    <a:fld id="{ED5F9C26-996E-4231-9AB3-7DC419DABAAE}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -9994,7 +9994,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{1BDEEADA-BAF9-4AF1-9277-F03B0489C7EF}" type="CELLRANGE">
+                    <a:fld id="{3D1009CD-CEE6-46B4-9B4E-A0B637DBBE36}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10028,7 +10028,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{89E849DF-4ED3-4350-BD99-ABD29328F294}" type="CELLRANGE">
+                    <a:fld id="{FEB67ECB-8B75-4FF3-83FF-9CD1B35F20D7}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10062,7 +10062,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{7EF091AA-46F7-46F2-8624-F419CF842AA2}" type="CELLRANGE">
+                    <a:fld id="{49180862-E6D4-4150-A6C4-F7300634ED95}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10738,7 +10738,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{E5EB56EB-1393-448A-ABFA-8EC8BF6979D1}" type="CELLRANGE">
+                    <a:fld id="{886098FA-939F-42B7-AC79-ED3A8B604200}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -10771,7 +10771,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{FC63EF7F-0ABC-4B61-BD59-0B625B60C9A8}" type="CELLRANGE">
+                    <a:fld id="{C9D041ED-D856-4C17-99C4-15A60D09E8E9}" type="CELLRANGE">
                       <a:rPr lang="en-IE"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -11376,7 +11376,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{CB8E66F0-3445-4478-8E42-61CF3B337711}" type="CELLRANGE">
+                    <a:fld id="{378B9147-7CAB-4824-B192-3FE42688A85D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -12496,9 +12496,9 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
-            <c:v> a. % H* L* L*H %</c:v>
+            <c:v> a. % H* L* H L*H %</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100">
@@ -12548,10 +12548,10 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:idx val="0"/>
+          <c:order val="3"/>
           <c:tx>
-            <c:v> b. % H* !H* L*H %</c:v>
+            <c:v> b. % H* L*!H L*H %</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="38100">
@@ -12563,19 +12563,97 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Graph Data'!$B$6,'Graph Data'!$B$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>79.626999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>303.755</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
-            <c:numLit>
-              <c:formatCode>General</c:formatCode>
-              <c:ptCount val="1"/>
-              <c:pt idx="0">
-                <c:v>1</c:v>
-              </c:pt>
-            </c:numLit>
+            <c:numRef>
+              <c:f>('Graph Data'!$K$6,'Graph Data'!$K$17)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>87.183000000000007</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>94.043000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A164-4DA6-AD07-82E406823E2D}"/>
+              <c16:uniqueId val="{00000003-FADB-4C93-A067-1456C06C53AF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v> c. % H* L* L*H %</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100">
+              <a:solidFill>
+                <a:srgbClr val="7570B3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>('Graph Data'!$B$3,'Graph Data'!$B$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>94.498000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>318.06299999999999</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>('Graph Data'!$K$3,'Graph Data'!$K$14)</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>86.834999999999994</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>92.555000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+              <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart"/>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FADB-4C93-A067-1456C06C53AF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -12593,67 +12671,27 @@
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
               <c15:ser>
-                <c:idx val="1"/>
-                <c:order val="0"/>
+                <c:idx val="4"/>
+                <c:order val="1"/>
                 <c:tx>
-                  <c:v> a. % H* L* L*H %</c:v>
+                  <c:v> b. % H* L*!H L*H %</c:v>
                 </c:tx>
-                <c:spPr>
-                  <a:ln w="38100">
-                    <a:solidFill>
-                      <a:srgbClr val="7570B3"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c:spPr>
                 <c:marker>
                   <c:symbol val="none"/>
                 </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('Graph Data'!$B$3,'Graph Data'!$B$14)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>94.498000000000005</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>318.06299999999999</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
                 <c:yVal>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('Graph Data'!$K$3,'Graph Data'!$K$14)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>86.834999999999994</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>92.555000000000007</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
+                  <c:numLit>
+                    <c:formatCode>General</c:formatCode>
+                    <c:ptCount val="1"/>
+                    <c:pt idx="0">
+                      <c:v>1</c:v>
+                    </c:pt>
+                  </c:numLit>
                 </c:yVal>
                 <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000000-FADB-4C93-A067-1456C06C53AF}"/>
+                    <c16:uniqueId val="{00000000-A164-4DA6-AD07-82E406823E2D}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -12663,7 +12701,7 @@
                 <c:idx val="3"/>
                 <c:order val="2"/>
                 <c:tx>
-                  <c:v> c. %H (*) L*H %</c:v>
+                  <c:v> b. % H* L*!H L*H %</c:v>
                 </c:tx>
                 <c:spPr>
                   <a:ln w="38100">
@@ -12721,73 +12759,6 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-FADB-4C93-A067-1456C06C53AF}"/>
-                  </c:ext>
-                </c:extLst>
-              </c15:ser>
-            </c15:filteredScatterSeries>
-            <c15:filteredScatterSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="3"/>
-                <c:tx>
-                  <c:v> d. % H* (*) L*H %</c:v>
-                </c:tx>
-                <c:spPr>
-                  <a:ln w="38100">
-                    <a:solidFill>
-                      <a:srgbClr val="B5B0F3"/>
-                    </a:solidFill>
-                  </a:ln>
-                </c:spPr>
-                <c:marker>
-                  <c:symbol val="none"/>
-                </c:marker>
-                <c:xVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('Graph Data'!$B$6,'Graph Data'!$B$17)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0</c:formatCode>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>79.626999999999995</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>303.755</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:xVal>
-                <c:yVal>
-                  <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>('Graph Data'!$K$6,'Graph Data'!$K$17)</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>0.0</c:formatCode>
-                      <c:ptCount val="2"/>
-                      <c:pt idx="0">
-                        <c:v>87.183000000000007</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>94.043000000000006</c:v>
-                      </c:pt>
-                    </c:numCache>
-                  </c:numRef>
-                </c:yVal>
-                <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
-                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000003-FADB-4C93-A067-1456C06C53AF}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -12982,7 +12953,7 @@
           <c:x val="0.66137719198143707"/>
           <c:y val="0.24909829825297367"/>
           <c:w val="0.27489919738293583"/>
-          <c:h val="0.16143492169609111"/>
+          <c:h val="0.28779715731326672"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -42168,6 +42139,12 @@
     <row r="112" ht="13.2" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="V4:AD4"/>
+    <mergeCell ref="AE4:AM4"/>
+    <mergeCell ref="AN4:AV4"/>
+    <mergeCell ref="AW4:BE4"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B4:L4"/>
     <mergeCell ref="B30:L30"/>
     <mergeCell ref="B44:L44"/>
     <mergeCell ref="B57:L57"/>
@@ -42175,12 +42152,6 @@
     <mergeCell ref="M4:U4"/>
     <mergeCell ref="A41:L41"/>
     <mergeCell ref="B17:L17"/>
-    <mergeCell ref="V4:AD4"/>
-    <mergeCell ref="AE4:AM4"/>
-    <mergeCell ref="AN4:AV4"/>
-    <mergeCell ref="AW4:BE4"/>
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="B4:L4"/>
   </mergeCells>
   <conditionalFormatting sqref="J14:K15 BC14:BD15 AT14:AU15 AK14:AL15 AB14:AC15 S14:T15 S6:T8 AB6:AC8 AK6:AL8 AT6:AU8 BC6:BD8 J6:K8 J10:K12 BC10:BD12 AT10:AU12 AK10:AL12 AB10:AC12 S10:T12">
     <cfRule type="cellIs" dxfId="236" priority="132" stopIfTrue="1" operator="lessThan">
@@ -46173,8 +46144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5919AE2-0160-41E7-B7DF-2FBBFC2636AC}">
   <dimension ref="K17:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
